--- a/data/org/college/students/2026.xlsx
+++ b/data/org/college/students/2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\folder-as-datalake\data\org\college\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0A6314-457E-4D7A-84B8-84EFD683BD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2271D6-4CCC-47DF-9C8C-3947DC9B6133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1050" windowWidth="11850" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1418" yWindow="1388" windowWidth="11850" windowHeight="10072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,100 +33,100 @@
     <t>Name</t>
   </si>
   <si>
-    <t>James Clerk Maxwell</t>
-  </si>
-  <si>
-    <t>Josef Stefan</t>
-  </si>
-  <si>
-    <t>Ernst Mach</t>
-  </si>
-  <si>
-    <t>Josiah Gibbs</t>
-  </si>
-  <si>
-    <t>James Dewar</t>
-  </si>
-  <si>
-    <t>Osborne Reynolds</t>
-  </si>
-  <si>
-    <t>Ludwig Boltzmann</t>
-  </si>
-  <si>
-    <t>Roland Eötvös</t>
-  </si>
-  <si>
-    <t>Oliver Heaviside</t>
-  </si>
-  <si>
-    <t>George Francis FitzGerald</t>
-  </si>
-  <si>
-    <t>John Henry Poynting</t>
-  </si>
-  <si>
-    <t>Henri Poincaré</t>
-  </si>
-  <si>
-    <t>Janne Rydberg</t>
-  </si>
-  <si>
-    <t>Edwin H. Hall</t>
-  </si>
-  <si>
-    <t>Heinrich Hertz</t>
-  </si>
-  <si>
-    <t>Johannes van der Waals</t>
-  </si>
-  <si>
-    <t>Lord Rayleigh</t>
-  </si>
-  <si>
-    <t>Wilhelm Röntgen</t>
-  </si>
-  <si>
-    <t>Antoine Henri Becquerel</t>
-  </si>
-  <si>
-    <t>Albert A. Michelson</t>
-  </si>
-  <si>
-    <t>Hendrik Antoon Lorentz</t>
-  </si>
-  <si>
-    <t>Heike Kamerlingh-Onnes</t>
-  </si>
-  <si>
-    <t>Sir Joseph John Thomson</t>
-  </si>
-  <si>
-    <t>Pierre Curie</t>
-  </si>
-  <si>
-    <t>Sir William Henry Bragg</t>
-  </si>
-  <si>
-    <t>Philipp von Lenard</t>
-  </si>
-  <si>
-    <t>Wilhelm Wien</t>
-  </si>
-  <si>
-    <t>Pieter Zeeman</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Robert Millikan</t>
-  </si>
-  <si>
-    <t>Charles Wilson</t>
-  </si>
-  <si>
-    <t>Jean Baptiste Perrin</t>
+    <t>Clerk Stefan</t>
+  </si>
+  <si>
+    <t>Josef Maxwell</t>
+  </si>
+  <si>
+    <t>Ernst Gibbs</t>
+  </si>
+  <si>
+    <t>Josiah Mach</t>
+  </si>
+  <si>
+    <t>Osborne Dewar</t>
+  </si>
+  <si>
+    <t>James Reynolds</t>
+  </si>
+  <si>
+    <t>Roland Boltzmann</t>
+  </si>
+  <si>
+    <t>Ludwig Eötvös</t>
+  </si>
+  <si>
+    <t>Oliver Fitzgerald</t>
+  </si>
+  <si>
+    <t>Francis Heaviside</t>
+  </si>
+  <si>
+    <t>Henri Poynting</t>
+  </si>
+  <si>
+    <t>John Poincaré</t>
+  </si>
+  <si>
+    <t>Janne Hall</t>
+  </si>
+  <si>
+    <t>Edwin Rydberg</t>
+  </si>
+  <si>
+    <t>Heinrich Waals</t>
+  </si>
+  <si>
+    <t>Johannes Hertz</t>
+  </si>
+  <si>
+    <t>David Rayleigh</t>
+  </si>
+  <si>
+    <t>Wilhelm Becquerel</t>
+  </si>
+  <si>
+    <t>Antoine Röntgen</t>
+  </si>
+  <si>
+    <t>Albert Lorentz</t>
+  </si>
+  <si>
+    <t>Antoon Michelson</t>
+  </si>
+  <si>
+    <t>Heike Thomson</t>
+  </si>
+  <si>
+    <t>John Kamerlingh</t>
+  </si>
+  <si>
+    <t>Pierre Bragg</t>
+  </si>
+  <si>
+    <t>Henry Curie</t>
+  </si>
+  <si>
+    <t>Philipp von Wien</t>
+  </si>
+  <si>
+    <t>Wilhelm Lenard</t>
+  </si>
+  <si>
+    <t>Pieter Curry</t>
+  </si>
+  <si>
+    <t>Marie Zeeman</t>
+  </si>
+  <si>
+    <t>Robert Wilson</t>
+  </si>
+  <si>
+    <t>Charles Millikan</t>
+  </si>
+  <si>
+    <t>Jean Perrin</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
         <v>20226005</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -505,7 +505,7 @@
         <v>20226006</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -513,7 +513,7 @@
         <v>20226007</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -521,7 +521,7 @@
         <v>20226008</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -545,7 +545,7 @@
         <v>20226011</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -553,7 +553,7 @@
         <v>20226012</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
